--- a/SRC/FlowChart/TRT/inNCCC_Func_CheckSpecialCard_Flow.xlsx
+++ b/SRC/FlowChart/TRT/inNCCC_Func_CheckSpecialCard_Flow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>先判斷卡號長度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>inNCCC_Func_CheckSpecialCard_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Table_Link_Duty_Free_Function(&amp;srAll, _LS_READ_, &amp;inTableID, szEverRichSCDTEnable);
+inSqlite_Get_Table_ByRecordID_All(gszReprintDBPath, _TABLE_NAME_DUTY_FREE_FUNCTION_, 0, &amp;srAll);
+這邊是set value給srAll，但奇怪的地方是沒用到srAll，有點意義不明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,9 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -505,6 +513,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="2:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
